--- a/exampleProblems/ch9_093/ch9_093.xlsx
+++ b/exampleProblems/ch9_093/ch9_093.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_093/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_786907863C8D6BAEDA5961C5C0E15A10D3B2F839" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6A57D1-4B99-4EF7-AAFA-3C115693D612}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_786907863C8D6BAEDA5961C5C0E15A10D3B2F839" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCA3B5E-1BBA-D340-BEA9-70F7F442115F}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="23880" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="2000" windowWidth="23880" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -180,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +338,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,13 +613,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -623,7 +627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -647,13 +651,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -680,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -709,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -738,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -767,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -796,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -825,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -854,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -865,7 +869,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -876,7 +880,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -887,7 +891,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -909,12 +913,12 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -947,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -978,7 +982,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1009,7 +1013,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1040,7 +1044,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1071,7 +1075,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1101,7 +1105,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>3.2</v>
       </c>
       <c r="C7" s="1">
-        <v>47</v>
+        <v>47.9</v>
       </c>
       <c r="D7" s="1">
         <v>-0.2</v>
@@ -1132,7 +1136,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1146,7 +1150,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1160,7 +1164,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1174,7 +1178,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1188,27 +1192,27 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="J14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="J15" s="1"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10">
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10">
       <c r="J18" s="1"/>
     </row>
   </sheetData>
@@ -1225,9 +1229,9 @@
       <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1271,7 +1275,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1304,7 +1308,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1337,7 +1341,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1370,7 +1374,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1385,7 +1389,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1400,7 +1404,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1415,7 +1419,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1430,7 +1434,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1445,7 +1449,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1460,7 +1464,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1475,7 +1479,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1490,7 +1494,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1505,7 +1509,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1520,7 +1524,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1535,7 +1539,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1550,7 +1554,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1565,7 +1569,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1589,7 +1593,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1600,7 +1604,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1611,7 +1615,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1622,7 +1626,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1633,7 +1637,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1644,7 +1648,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1655,7 +1659,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1666,7 +1670,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1677,7 +1681,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1688,7 +1692,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1699,7 +1703,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1710,7 +1714,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1721,7 +1725,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1732,7 +1736,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1743,7 +1747,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1754,7 +1758,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1765,7 +1769,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1787,12 +1791,12 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1836,7 +1840,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1855,7 +1859,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1874,7 +1878,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1893,7 +1897,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1912,7 +1916,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1931,7 +1935,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1950,7 +1954,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1969,7 +1973,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1988,7 +1992,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2007,7 +2011,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>6.95</v>
       </c>
       <c r="C11" s="1">
-        <v>147</v>
+        <v>147.1</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2026,7 +2030,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2045,7 +2049,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2064,7 +2068,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2083,7 +2087,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2102,7 +2106,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2121,7 +2125,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2134,7 +2138,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2147,7 +2151,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2160,7 +2164,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2173,7 +2177,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2186,7 +2190,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2199,7 +2203,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2212,7 +2216,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2225,7 +2229,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2238,7 +2242,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2251,7 +2255,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2264,7 +2268,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2277,7 +2281,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2290,7 +2294,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2303,7 +2307,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2316,7 +2320,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2329,7 +2333,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2342,7 +2346,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2355,7 +2359,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2368,7 +2372,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2381,7 +2385,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2394,7 +2398,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2407,7 +2411,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2420,7 +2424,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2433,7 +2437,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2446,7 +2450,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2459,7 +2463,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2472,7 +2476,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2485,7 +2489,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2510,7 +2514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2521,12 +2525,12 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2553,12 +2557,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>147.001</v>
+        <v>147.1</v>
       </c>
       <c r="C2" s="1">
         <v>381</v>
@@ -2578,7 +2582,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2603,7 +2607,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2628,7 +2632,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2653,7 +2657,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2678,7 +2682,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2703,7 +2707,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2728,7 +2732,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2753,7 +2757,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2764,7 +2768,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2775,7 +2779,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2786,7 +2790,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2797,7 +2801,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2808,7 +2812,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2833,9 +2837,9 @@
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2862,7 +2866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2912,7 +2916,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2937,7 +2941,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2987,7 +2991,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3012,7 +3016,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3023,7 +3027,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3034,7 +3038,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3045,7 +3049,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3069,9 +3073,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -3363,16 +3367,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
